--- a/results/full_results_observed.xlsx
+++ b/results/full_results_observed.xlsx
@@ -495,10 +495,10 @@
         <v>#NUM!</v>
       </c>
       <c r="H2" t="n">
-        <v>0.56298906743583</v>
+        <v>0.564166024789842</v>
       </c>
       <c r="I2" t="n">
-        <v>0.184020829385222</v>
+        <v>0.17988289300563</v>
       </c>
       <c r="J2" t="e">
         <v>#NUM!</v>
@@ -516,7 +516,7 @@
         <v>#NUM!</v>
       </c>
       <c r="O2" t="n">
-        <v>0.436803765737209</v>
+        <v>0.435628374128827</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>0.574545625506367</v>
+        <v>0.576042692642913</v>
       </c>
       <c r="G3" t="n">
-        <v>0.208264491482213</v>
+        <v>0.204450602118496</v>
       </c>
       <c r="H3" t="e">
         <v>#NUM!</v>
@@ -574,13 +574,13 @@
         <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>0.638200814202682</v>
+        <v>0.638066291221125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.361431344201991</v>
+        <v>0.361569411877401</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999632158404674</v>
+        <v>0.999635703098526</v>
       </c>
       <c r="F4" t="e">
         <v>#NUM!</v>
@@ -595,19 +595,19 @@
         <v>#NUM!</v>
       </c>
       <c r="J4" t="n">
-        <v>0.361564342599156</v>
+        <v>0.36170117980571</v>
       </c>
       <c r="K4" t="n">
-        <v>0.208341128186134</v>
+        <v>0.204525107058372</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0115608106357334</v>
+        <v>0.0118809936245872</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0752394231380528</v>
+        <v>0.0739271943231168</v>
       </c>
       <c r="N4" t="n">
-        <v>0.219901938821868</v>
+        <v>0.216406100682959</v>
       </c>
       <c r="O4" t="e">
         <v>#NUM!</v>
@@ -636,10 +636,10 @@
         <v>#NUM!</v>
       </c>
       <c r="H5" t="n">
-        <v>0.838132835268018</v>
+        <v>0.841250028666246</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0942494483920429</v>
+        <v>0.0943505841960054</v>
       </c>
       <c r="J5" t="e">
         <v>#NUM!</v>
@@ -657,7 +657,7 @@
         <v>#NUM!</v>
       </c>
       <c r="O5" t="n">
-        <v>0.16188930190773</v>
+        <v>0.158772019642304</v>
       </c>
     </row>
     <row r="6">
@@ -677,10 +677,10 @@
         <v>#NUM!</v>
       </c>
       <c r="F6" t="n">
-        <v>0.854716716635288</v>
+        <v>0.858224755649418</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0931681061430825</v>
+        <v>0.0917999094700253</v>
       </c>
       <c r="H6" t="e">
         <v>#NUM!</v>
@@ -715,13 +715,13 @@
         <v>18</v>
       </c>
       <c r="C7" t="n">
-        <v>0.891460609668767</v>
+        <v>0.89233621196557</v>
       </c>
       <c r="D7" t="n">
-        <v>0.108565803933239</v>
+        <v>0.107689997855455</v>
       </c>
       <c r="E7" t="n">
-        <v>1.00002641360201</v>
+        <v>1.00002620982103</v>
       </c>
       <c r="F7" t="e">
         <v>#NUM!</v>
@@ -736,19 +736,19 @@
         <v>#NUM!</v>
       </c>
       <c r="J7" t="n">
-        <v>0.108562936121761</v>
+        <v>0.107687175269545</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0931656447663158</v>
+        <v>0.0917975033727673</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0165834437535875</v>
+        <v>0.0169742821064314</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0533263657859697</v>
+        <v>0.0510848443727595</v>
       </c>
       <c r="N7" t="n">
-        <v>0.109749088519903</v>
+        <v>0.108771785479199</v>
       </c>
       <c r="O7" t="e">
         <v>#NUM!</v>
@@ -777,10 +777,10 @@
         <v>#NUM!</v>
       </c>
       <c r="H8" t="n">
-        <v>0.804478084275269</v>
+        <v>0.802766025660298</v>
       </c>
       <c r="I8" t="n">
-        <v>0.078524937510048</v>
+        <v>0.0800516319714449</v>
       </c>
       <c r="J8" t="e">
         <v>#NUM!</v>
@@ -798,7 +798,7 @@
         <v>#NUM!</v>
       </c>
       <c r="O8" t="n">
-        <v>0.195770374325533</v>
+        <v>0.197483910106585</v>
       </c>
     </row>
     <row r="9">
@@ -818,10 +818,10 @@
         <v>#NUM!</v>
       </c>
       <c r="F9" t="n">
-        <v>0.844260332825468</v>
+        <v>0.845266194618648</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0838352002688032</v>
+        <v>0.0827339293747115</v>
       </c>
       <c r="H9" t="e">
         <v>#NUM!</v>
@@ -856,13 +856,13 @@
         <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>0.859934692307683</v>
+        <v>0.859701573261984</v>
       </c>
       <c r="D10" t="n">
-        <v>0.140374247570529</v>
+        <v>0.140609863257113</v>
       </c>
       <c r="E10" t="n">
-        <v>1.00030893987821</v>
+        <v>1.0003114365191</v>
       </c>
       <c r="F10" t="e">
         <v>#NUM!</v>
@@ -877,19 +877,19 @@
         <v>#NUM!</v>
       </c>
       <c r="J10" t="n">
-        <v>0.140330893760255</v>
+        <v>0.14056608463557</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0838093083019465</v>
+        <v>0.0827081727612653</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0397699618881038</v>
+        <v>0.0424869377984927</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0554394805652776</v>
+        <v>0.0569178254710148</v>
       </c>
       <c r="N10" t="n">
-        <v>0.12357927019005</v>
+        <v>0.125195110559758</v>
       </c>
       <c r="O10" t="e">
         <v>#NUM!</v>
@@ -918,10 +918,10 @@
         <v>#NUM!</v>
       </c>
       <c r="H11" t="n">
-        <v>0.765713570338228</v>
+        <v>0.766984012917056</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0698153928627143</v>
+        <v>0.0666936286405306</v>
       </c>
       <c r="J11" t="e">
         <v>#NUM!</v>
@@ -939,7 +939,7 @@
         <v>#NUM!</v>
       </c>
       <c r="O11" t="n">
-        <v>0.234556814683694</v>
+        <v>0.233285259008839</v>
       </c>
     </row>
     <row r="12">
@@ -959,10 +959,10 @@
         <v>#NUM!</v>
       </c>
       <c r="F12" t="n">
-        <v>0.770196437740844</v>
+        <v>0.7737235605777</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0820471971015397</v>
+        <v>0.0778595744267586</v>
       </c>
       <c r="H12" t="e">
         <v>#NUM!</v>
@@ -997,13 +997,13 @@
         <v>18</v>
       </c>
       <c r="C13" t="n">
-        <v>0.827600841924518</v>
+        <v>0.827898351653003</v>
       </c>
       <c r="D13" t="n">
-        <v>0.172752399498568</v>
+        <v>0.172452844834897</v>
       </c>
       <c r="E13" t="n">
-        <v>1.00035324142309</v>
+        <v>1.0003511964879</v>
       </c>
       <c r="F13" t="e">
         <v>#NUM!</v>
@@ -1018,19 +1018,19 @@
         <v>#NUM!</v>
       </c>
       <c r="J13" t="n">
-        <v>0.172691391474395</v>
+        <v>0.172392297681435</v>
       </c>
       <c r="K13" t="n">
-        <v>0.082018221689438</v>
+        <v>0.0778322388826295</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00448128337700016</v>
+        <v>0.00673718546760789</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0618654232092994</v>
+        <v>0.0608929613274043</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0864995050664381</v>
+        <v>0.0845694243502373</v>
       </c>
       <c r="O13" t="e">
         <v>#NUM!</v>
@@ -1059,10 +1059,10 @@
         <v>#NUM!</v>
       </c>
       <c r="H14" t="n">
-        <v>0.812352961150867</v>
+        <v>0.808729608307432</v>
       </c>
       <c r="I14" t="n">
-        <v>0.129533263171103</v>
+        <v>0.130680500462492</v>
       </c>
       <c r="J14" t="e">
         <v>#NUM!</v>
@@ -1080,7 +1080,7 @@
         <v>#NUM!</v>
       </c>
       <c r="O14" t="n">
-        <v>0.188859778967144</v>
+        <v>0.192479525848833</v>
       </c>
     </row>
     <row r="15">
@@ -1100,10 +1100,10 @@
         <v>#NUM!</v>
       </c>
       <c r="F15" t="n">
-        <v>0.830343325708043</v>
+        <v>0.82900556513295</v>
       </c>
       <c r="G15" t="n">
-        <v>0.133546799956866</v>
+        <v>0.132722287364084</v>
       </c>
       <c r="H15" t="e">
         <v>#NUM!</v>
@@ -1138,13 +1138,13 @@
         <v>18</v>
       </c>
       <c r="C16" t="n">
-        <v>0.828638689570751</v>
+        <v>0.828573269432525</v>
       </c>
       <c r="D16" t="n">
-        <v>0.172856417501016</v>
+        <v>0.172924072006996</v>
       </c>
       <c r="E16" t="n">
-        <v>1.00149510707177</v>
+        <v>1.00149734143952</v>
       </c>
       <c r="F16" t="e">
         <v>#NUM!</v>
@@ -1159,19 +1159,19 @@
         <v>#NUM!</v>
       </c>
       <c r="J16" t="n">
-        <v>0.172598364384291</v>
+        <v>0.17266553142669</v>
       </c>
       <c r="K16" t="n">
-        <v>0.133347429321329</v>
+        <v>0.132523853359574</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0179635081114631</v>
+        <v>0.0202456428388175</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0162614145828523</v>
+        <v>0.0198139944221428</v>
       </c>
       <c r="N16" t="n">
-        <v>0.151310937432792</v>
+        <v>0.152769496198391</v>
       </c>
       <c r="O16" t="e">
         <v>#NUM!</v>
@@ -1193,10 +1193,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>24</v>
@@ -1210,257 +1210,257 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
       <c r="C2" t="n">
-        <v>0.219901938821868</v>
+        <v>0.36170117980571</v>
       </c>
       <c r="D2" t="n">
-        <v>0.204418576898026</v>
+        <v>0.322741097211117</v>
       </c>
       <c r="E2" t="n">
-        <v>0.23538530074571</v>
+        <v>0.400661262400303</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
       <c r="C3" t="n">
-        <v>0.436803765737209</v>
+        <v>0.216406100682959</v>
       </c>
       <c r="D3" t="n">
-        <v>0.418917560666466</v>
+        <v>0.185308575857085</v>
       </c>
       <c r="E3" t="n">
-        <v>0.454689970807952</v>
+        <v>0.247503625508832</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" t="n">
-        <v>0.361564342599156</v>
+        <v>0.435628374128827</v>
       </c>
       <c r="D4" t="n">
-        <v>0.341996287878513</v>
+        <v>0.404097397072113</v>
       </c>
       <c r="E4" t="n">
-        <v>0.381132397319799</v>
+        <v>0.467159351185541</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>0.109749088519903</v>
+        <v>0.172392297681435</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0595936116557166</v>
+        <v>0.14204770421408</v>
       </c>
       <c r="E5" t="n">
-        <v>0.15990456538409</v>
+        <v>0.20273689114879</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>0.16188930190773</v>
+        <v>0.0845694243502373</v>
       </c>
       <c r="D6" t="n">
-        <v>0.124544547023292</v>
+        <v>0.0482457849317492</v>
       </c>
       <c r="E6" t="n">
-        <v>0.199234056792169</v>
+        <v>0.120893063768725</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>0.108562936121761</v>
+        <v>0.233285259008839</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0585732320691351</v>
+        <v>0.204682421394656</v>
       </c>
       <c r="E7" t="n">
-        <v>0.158552640174386</v>
+        <v>0.261888096623022</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
       <c r="C8" t="n">
-        <v>0.12357927019005</v>
+        <v>0.14056608463557</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0627563548797438</v>
+        <v>0.0512911993422382</v>
       </c>
       <c r="E8" t="n">
-        <v>0.184402185500357</v>
+        <v>0.229840969928901</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
       <c r="C9" t="n">
-        <v>0.195770374325533</v>
+        <v>0.125195110559758</v>
       </c>
       <c r="D9" t="n">
-        <v>0.149355901187873</v>
+        <v>0.0360863304357876</v>
       </c>
       <c r="E9" t="n">
-        <v>0.242184847463193</v>
+        <v>0.214303890683728</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
       <c r="C10" t="n">
-        <v>0.140330893760255</v>
+        <v>0.197483910106585</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0639653575845465</v>
+        <v>0.114939916178892</v>
       </c>
       <c r="E10" t="n">
-        <v>0.216696429935964</v>
+        <v>0.280027904034278</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0864995050664381</v>
+        <v>0.17266553142669</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0672509853536312</v>
+        <v>0.0560058845213903</v>
       </c>
       <c r="E11" t="n">
-        <v>0.105748024779245</v>
+        <v>0.28932517833199</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C12" t="n">
-        <v>0.234556814683694</v>
+        <v>0.152769496198391</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214390950803191</v>
+        <v>0.0390740685062593</v>
       </c>
       <c r="E12" t="n">
-        <v>0.254722678564198</v>
+        <v>0.266464923890523</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C13" t="n">
-        <v>0.172691391474395</v>
+        <v>0.192479525848833</v>
       </c>
       <c r="D13" t="n">
-        <v>0.135352747623747</v>
+        <v>0.0836957137848644</v>
       </c>
       <c r="E13" t="n">
-        <v>0.210030035325043</v>
+        <v>0.301263337912802</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>0.151310937432792</v>
+        <v>0.107687175269545</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0297855538427956</v>
+        <v>0.0522538340451524</v>
       </c>
       <c r="E14" t="n">
-        <v>0.332407428708379</v>
+        <v>0.163120516493937</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>0.188859778967144</v>
+        <v>0.108771785479199</v>
       </c>
       <c r="D15" t="n">
-        <v>0.017681198765806</v>
+        <v>0.0545047685720089</v>
       </c>
       <c r="E15" t="n">
-        <v>0.360038359168481</v>
+        <v>0.163038802386389</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C16" t="n">
-        <v>0.172598364384291</v>
+        <v>0.158772019642304</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.0158323367323055</v>
+        <v>0.104751073568448</v>
       </c>
       <c r="E16" t="n">
-        <v>0.361029065500888</v>
+        <v>0.21279296571616</v>
       </c>
     </row>
   </sheetData>

--- a/results/full_results_observed.xlsx
+++ b/results/full_results_observed.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Outcome</t>
   </si>
@@ -60,7 +60,7 @@
     <t xml:space="preserve">IORAD</t>
   </si>
   <si>
-    <t xml:space="preserve">education</t>
+    <t xml:space="preserve">income</t>
   </si>
   <si>
     <t xml:space="preserve">NULL MODEL</t>
@@ -70,15 +70,6 @@
   </si>
   <si>
     <t xml:space="preserve">COMPLETE MODEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">health_pc</t>
   </si>
   <si>
     <t xml:space="preserve">Index</t>
@@ -477,32 +468,32 @@
         <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>0.636578572373953</v>
+        <v>0.828786046612005</v>
       </c>
       <c r="D2" t="n">
-        <v>0.36362199146689</v>
+        <v>0.171308442021467</v>
       </c>
       <c r="E2" t="n">
-        <v>1.00020056384084</v>
+        <v>1.00009448863347</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="n">
-        <v>0.363549076667738</v>
+        <v>0.171292256850193</v>
       </c>
       <c r="K2" t="n">
-        <v>0.231603958444698</v>
+        <v>0.117503072015316</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0113092053869563</v>
+        <v>0.0468290697204447</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0698201288947373</v>
+        <v>0.0567173652968608</v>
       </c>
       <c r="N2" t="n">
-        <v>0.242913163831654</v>
+        <v>0.164332141735761</v>
       </c>
       <c r="O2"/>
     </row>
@@ -517,10 +508,10 @@
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3" t="n">
-        <v>0.578055913690622</v>
+        <v>0.818896816704053</v>
       </c>
       <c r="G3" t="n">
-        <v>0.231650409824158</v>
+        <v>0.11751417472002</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -544,10 +535,10 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="n">
-        <v>0.566744440085996</v>
+        <v>0.772063322168803</v>
       </c>
       <c r="I4" t="n">
-        <v>0.205784021121884</v>
+        <v>0.10399400799346</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -555,274 +546,7 @@
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4" t="n">
-        <v>0.433369205562476</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.828786046612005</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.171308442021467</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.00009448863347</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5" t="n">
-        <v>0.171292256850193</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.117503072015316</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.0468290697204447</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.0567173652968608</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.164332141735761</v>
-      </c>
-      <c r="O5"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6" t="n">
-        <v>0.818896816704053</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.11751417472002</v>
-      </c>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7" t="n">
-        <v>0.772063322168803</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.10399400799346</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7" t="n">
         <v>0.228009622147054</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.793443156370942</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.206670835653944</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.00011399202489</v>
-      </c>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8" t="n">
-        <v>0.206647279512115</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.165609512993031</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.0185187178331887</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.0138374277897922</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.18412823082622</v>
-      </c>
-      <c r="O8"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9" t="n">
-        <v>0.79812498004407</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.165628391156757</v>
-      </c>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10" t="n">
-        <v>0.779604151224737</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.151679674032364</v>
-      </c>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10" t="n">
-        <v>0.220484707301908</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.853188217787623</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.146892799381178</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.0000810171688</v>
-      </c>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11" t="n">
-        <v>0.146880899506549</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.13044547899141</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.00601236283646361</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.0318313203191275</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.136457841827874</v>
-      </c>
-      <c r="O11"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12" t="n">
-        <v>0.827367168526123</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.130456047314801</v>
-      </c>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13" t="n">
-        <v>0.821354318585044</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.132144941880929</v>
-      </c>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13" t="n">
-        <v>0.178712219825676</v>
       </c>
     </row>
   </sheetData>
@@ -841,19 +565,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
@@ -864,13 +588,13 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.363549076667738</v>
+        <v>0.171292256850193</v>
       </c>
       <c r="D2" t="n">
-        <v>0.312363504581606</v>
+        <v>0.10556632321424</v>
       </c>
       <c r="E2" t="n">
-        <v>0.414734648753871</v>
+        <v>0.237018190486146</v>
       </c>
     </row>
     <row r="3">
@@ -881,13 +605,13 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.242913163831654</v>
+        <v>0.164332141735761</v>
       </c>
       <c r="D3" t="n">
-        <v>0.196184240372071</v>
+        <v>0.088265841215216</v>
       </c>
       <c r="E3" t="n">
-        <v>0.289642087291237</v>
+        <v>0.240398442256306</v>
       </c>
     </row>
     <row r="4">
@@ -898,166 +622,13 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.433369205562476</v>
+        <v>0.228009622147054</v>
       </c>
       <c r="D4" t="n">
-        <v>0.386076073198663</v>
+        <v>0.151362407395312</v>
       </c>
       <c r="E4" t="n">
-        <v>0.480662337926288</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.171292256850193</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.100618794235736</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.241965719464651</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.164332141735761</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.10415130852168</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.224512974949842</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.228009622147054</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.168363107481218</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.28765613681289</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.206647279512115</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0830390596349577</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.330255499389273</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.18412823082622</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.06654047738226</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.301715984270179</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.220484707301908</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.0992026230514365</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.341766791552379</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.146880899506549</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.101338007685282</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.192423791327816</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.136457841827874</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.0881333173371684</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.184782366318579</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.178712219825676</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.12807255926117</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.229351880390182</v>
+        <v>0.304656836898796</v>
       </c>
     </row>
   </sheetData>
